--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2490774014335269</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.941285555904509</v>
+        <v>-1.934180231870102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1303788703579798</v>
+        <v>0.1272631277319807</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1475821650930364</v>
+        <v>-0.1454592551688552</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2537305341923412</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.084111840301471</v>
+        <v>-2.075532597719291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06784063048008757</v>
+        <v>0.0656987399307245</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1201829026190438</v>
+        <v>-0.1189345615013168</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2744045453565352</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.295763331655778</v>
+        <v>-2.286091973101599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05473669886418199</v>
+        <v>0.05214365345472814</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1431655196180376</v>
+        <v>-0.1418733770575834</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3050433306116143</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.465239873856096</v>
+        <v>-2.455589685999235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008594642615600928</v>
+        <v>-0.0007188477247122107</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1687587026035762</v>
+        <v>-0.1671526497035766</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3360703333871677</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.53559740128485</v>
+        <v>-2.524882108345671</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07327885769860182</v>
+        <v>-0.07191371273360218</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1720467309043026</v>
+        <v>-0.1712758255123028</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3577476916533064</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.335545261988767</v>
+        <v>-2.324394144694452</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1242462164560427</v>
+        <v>-0.120994689357589</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1478362134608545</v>
+        <v>-0.1473704581198547</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3651416414944657</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.027826986396941</v>
+        <v>-2.014992433653808</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1737579072668476</v>
+        <v>-0.1675687634094856</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1165254821513175</v>
+        <v>-0.1169065547030446</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3559581050545915</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.673668231153536</v>
+        <v>-1.660459176075085</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1039281872229572</v>
+        <v>-0.09720320571623176</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07358838789387447</v>
+        <v>-0.07417532722641976</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.328461437581123</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.241943691056561</v>
+        <v>-1.227519875966474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009464987709375964</v>
+        <v>0.01322169144728405</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01067929580089136</v>
+        <v>-0.01124725450825484</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2796757998144542</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9285925499300085</v>
+        <v>-0.9133671684380126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07427214232054039</v>
+        <v>0.07599207897163082</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01596174979379903</v>
+        <v>-0.01634428239361711</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2085625930245607</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5634710235960156</v>
+        <v>-0.5460599501119294</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1453531235783395</v>
+        <v>0.1450903149219759</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0211609810455249</v>
+        <v>-0.02021194978643425</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1160595807107409</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1188060772693169</v>
+        <v>-0.09910418833059488</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01001250574346673</v>
+        <v>0.009665014297830456</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04788177307736565</v>
+        <v>0.04858697630527455</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.006745229729446389</v>
       </c>
       <c r="E14" t="n">
-        <v>0.335436784533743</v>
+        <v>0.3561840679055556</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1631243770207595</v>
+        <v>-0.1633346239458504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1162572852227109</v>
+        <v>0.118318873127074</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1161871337185523</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8803544729745967</v>
+        <v>0.9005673787451367</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1826934015832088</v>
+        <v>-0.1869611221529349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1980491792754162</v>
+        <v>0.2001180674202339</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2454479283116529</v>
       </c>
       <c r="E16" t="n">
-        <v>1.579421118757409</v>
+        <v>1.597537395469404</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5175291503674825</v>
+        <v>-0.5228028440718447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2633264693718533</v>
+        <v>0.2648069581360347</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3785846381864011</v>
       </c>
       <c r="E17" t="n">
-        <v>2.283967325025402</v>
+        <v>2.298674389445125</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.684808320190983</v>
+        <v>-0.6899549897114362</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3737134052850054</v>
+        <v>0.3752727366460959</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5176611934873373</v>
       </c>
       <c r="E18" t="n">
-        <v>3.046667246754288</v>
+        <v>3.058712643504284</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9629898229037266</v>
+        <v>-0.9668808510659982</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4849719899084301</v>
+        <v>0.4870744591593386</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6679383493770508</v>
       </c>
       <c r="E19" t="n">
-        <v>3.675232550371392</v>
+        <v>3.684714102673753</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.203191094627662</v>
+        <v>-1.206150612107934</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6053339743786705</v>
+        <v>0.6066465576123974</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8279789869823141</v>
       </c>
       <c r="E20" t="n">
-        <v>4.335095444865215</v>
+        <v>4.339528150869214</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.463297201974956</v>
+        <v>-1.46544055257241</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7178978419953675</v>
+        <v>0.7202879407201851</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9925075268079173</v>
       </c>
       <c r="E21" t="n">
-        <v>4.858033569345529</v>
+        <v>4.860901103796073</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.735377163715792</v>
+        <v>-1.736602144064064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8655335248037824</v>
+        <v>0.8671658585694184</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.149624133046533</v>
       </c>
       <c r="E22" t="n">
-        <v>5.37505411891339</v>
+        <v>5.372856746536572</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.954966206516324</v>
+        <v>-1.955669219672096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9522720617884864</v>
+        <v>0.9541613640181223</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.291407985763262</v>
       </c>
       <c r="E23" t="n">
-        <v>5.72129138323957</v>
+        <v>5.717376994307843</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.203192632571939</v>
+        <v>-2.20162016077803</v>
       </c>
       <c r="G23" t="n">
-        <v>1.062444370632275</v>
+        <v>1.064281111130638</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.411287179233605</v>
       </c>
       <c r="E24" t="n">
-        <v>6.142953271894002</v>
+        <v>6.135690992689822</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.431895295555923</v>
+        <v>-2.428647418577697</v>
       </c>
       <c r="G24" t="n">
-        <v>1.182453023464516</v>
+        <v>1.183197647990879</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.507482653082495</v>
       </c>
       <c r="E25" t="n">
-        <v>6.431914309661924</v>
+        <v>6.419362276224382</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556174589054072</v>
+        <v>-2.553123088544072</v>
       </c>
       <c r="G25" t="n">
-        <v>1.256442420519405</v>
+        <v>1.256912556004677</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.57726897460907</v>
       </c>
       <c r="E26" t="n">
-        <v>6.594883417521062</v>
+        <v>6.579071096696521</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.60530666736124</v>
+        <v>-2.603726895326877</v>
       </c>
       <c r="G26" t="n">
-        <v>1.31980412752057</v>
+        <v>1.319858149299933</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.621137161109362</v>
       </c>
       <c r="E27" t="n">
-        <v>6.698719117650307</v>
+        <v>6.681356225753221</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.68897837333099</v>
+        <v>-2.683929527032628</v>
       </c>
       <c r="G27" t="n">
-        <v>1.33085961166493</v>
+        <v>1.332467124613021</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.63859968756579</v>
       </c>
       <c r="E28" t="n">
-        <v>6.881356533342077</v>
+        <v>6.860368342035263</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71647764909921</v>
+        <v>-2.712109915235257</v>
       </c>
       <c r="G28" t="n">
-        <v>1.370375813245374</v>
+        <v>1.372018367347646</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.630856172835118</v>
       </c>
       <c r="E29" t="n">
-        <v>6.844598362605359</v>
+        <v>6.823145876005637</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.737270923985887</v>
+        <v>-2.731919847732706</v>
       </c>
       <c r="G29" t="n">
-        <v>1.355968058684287</v>
+        <v>1.357121496676105</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.59970344817564</v>
       </c>
       <c r="E30" t="n">
-        <v>6.779658343617922</v>
+        <v>6.757906547159564</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640440534596821</v>
+        <v>-2.638225641642913</v>
       </c>
       <c r="G30" t="n">
-        <v>1.339123483859473</v>
+        <v>1.340005352906382</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.549802083918533</v>
       </c>
       <c r="E31" t="n">
-        <v>6.802201486141552</v>
+        <v>6.776942654168831</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541476284922894</v>
+        <v>-2.54015348135253</v>
       </c>
       <c r="G31" t="n">
-        <v>1.300918405464666</v>
+        <v>1.301617768500211</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.486539773048056</v>
       </c>
       <c r="E32" t="n">
-        <v>6.76021488319129</v>
+        <v>6.732675456100571</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.408210395425202</v>
+        <v>-2.408763753651657</v>
       </c>
       <c r="G32" t="n">
-        <v>1.254177885930405</v>
+        <v>1.254430474250133</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.416313347942822</v>
       </c>
       <c r="E33" t="n">
-        <v>6.592684585096154</v>
+        <v>6.56345296226807</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373388978481075</v>
+        <v>-2.372838540350803</v>
       </c>
       <c r="G33" t="n">
-        <v>1.196089872633603</v>
+        <v>1.196232957346512</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.34344306249231</v>
       </c>
       <c r="E34" t="n">
-        <v>6.296337164036324</v>
+        <v>6.269082446323331</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336515463945176</v>
+        <v>-2.337729493932767</v>
       </c>
       <c r="G34" t="n">
-        <v>1.146289092300798</v>
+        <v>1.146535840428162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.271519492508315</v>
       </c>
       <c r="E35" t="n">
-        <v>6.100557855478286</v>
+        <v>6.074221508014475</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298200151919505</v>
+        <v>-2.298465150648004</v>
       </c>
       <c r="G35" t="n">
-        <v>1.08595844513636</v>
+        <v>1.086653428027632</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.20209205132294</v>
       </c>
       <c r="E36" t="n">
-        <v>5.903235276088157</v>
+        <v>5.876931049682346</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.234928967899976</v>
+        <v>-2.237457041169384</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063299958813547</v>
+        <v>1.062717399625275</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.136420859692514</v>
       </c>
       <c r="E37" t="n">
-        <v>5.597764014508239</v>
+        <v>5.573033719944427</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189967516964488</v>
+        <v>-2.191704974192669</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9584728860305757</v>
+        <v>0.9586393315129392</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.074477576825319</v>
       </c>
       <c r="E38" t="n">
-        <v>5.291162675705958</v>
+        <v>5.266982819272418</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143648951328501</v>
+        <v>-2.145373998147909</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8848543411907772</v>
+        <v>0.8853638979745044</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.017000271550233</v>
       </c>
       <c r="E39" t="n">
-        <v>4.976440549422042</v>
+        <v>4.950026819409413</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.084978378843425</v>
+        <v>-2.087082308142425</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8043604298908897</v>
+        <v>0.8051663764370713</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9632532245480869</v>
       </c>
       <c r="E40" t="n">
-        <v>4.685301119902484</v>
+        <v>4.659102016959219</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104402128620829</v>
+        <v>-2.10521464538342</v>
       </c>
       <c r="G40" t="n">
-        <v>0.763626548202628</v>
+        <v>0.7642237078718097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9140312763113638</v>
       </c>
       <c r="E41" t="n">
-        <v>4.364585496205389</v>
+        <v>4.339637654476031</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999336337974994</v>
+        <v>-2.000325520556584</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6841707310953766</v>
+        <v>0.6847532902836492</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8678129313056285</v>
       </c>
       <c r="E42" t="n">
-        <v>3.987557277690035</v>
+        <v>3.965316365121223</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909138217038882</v>
+        <v>-1.909379124973882</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6046813328820343</v>
+        <v>0.6047762360079434</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8244327082697804</v>
       </c>
       <c r="E43" t="n">
-        <v>3.686463240286662</v>
+        <v>3.665628354029394</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856639997858123</v>
+        <v>-1.857164885146805</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5644234268714088</v>
+        <v>0.565314056206863</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7819563692137186</v>
       </c>
       <c r="E44" t="n">
-        <v>3.385862699138015</v>
+        <v>3.366755049772292</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761855135844421</v>
+        <v>-1.763027554461421</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5152869684199675</v>
+        <v>0.5153804114977856</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7398295555658825</v>
       </c>
       <c r="E45" t="n">
-        <v>3.103429536384545</v>
+        <v>3.084533593992005</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679159472023443</v>
+        <v>-1.680378612179352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4206291305901746</v>
+        <v>0.4218219898804471</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6958758511170362</v>
       </c>
       <c r="E46" t="n">
-        <v>2.80892031587117</v>
+        <v>2.791231833249811</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600667286656192</v>
+        <v>-1.60148345353901</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3827058414769121</v>
+        <v>0.3842914537036389</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6502616003433178</v>
       </c>
       <c r="E47" t="n">
-        <v>2.479539306754531</v>
+        <v>2.463227649482899</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479343130494043</v>
+        <v>-1.481041166423769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3189703621644747</v>
+        <v>0.3203019260233834</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6020256403666867</v>
       </c>
       <c r="E48" t="n">
-        <v>2.187256659579791</v>
+        <v>2.172791963143159</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.375678255991434</v>
+        <v>-1.377596759182888</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2903665600154823</v>
+        <v>0.2902453760239369</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5527877537920222</v>
       </c>
       <c r="E49" t="n">
-        <v>1.907562547044866</v>
+        <v>1.894832387740233</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.289287210452366</v>
+        <v>-1.29268328231182</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2363988024312241</v>
+        <v>0.2366280299814968</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5027665046401036</v>
       </c>
       <c r="E50" t="n">
-        <v>1.77351699186663</v>
+        <v>1.759739978080815</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.168075477993217</v>
+        <v>-1.171810281009761</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1978593730235981</v>
+        <v>0.1975542229725982</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4539971554062979</v>
       </c>
       <c r="E51" t="n">
-        <v>1.499435304193158</v>
+        <v>1.488781333273797</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.091945650437055</v>
+        <v>-1.096576922981418</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1670435980168791</v>
+        <v>0.1661281478638794</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4070190118165436</v>
       </c>
       <c r="E52" t="n">
-        <v>1.340822979837291</v>
+        <v>1.331859744607203</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.009582877580805</v>
+        <v>-1.014066685267986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.144465414339067</v>
+        <v>0.1436098261577945</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3631961890962551</v>
       </c>
       <c r="E53" t="n">
-        <v>1.098525079054811</v>
+        <v>1.090613078450177</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9365089306789155</v>
+        <v>-0.9420527332800958</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1008625381521696</v>
+        <v>0.100263918434897</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3229261979291373</v>
       </c>
       <c r="E54" t="n">
-        <v>0.954085441517395</v>
+        <v>0.9465559735125789</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9436354254106408</v>
+        <v>-0.9498012084985483</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04996964184736509</v>
+        <v>0.04906295198291079</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2870553983246875</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7930859385328928</v>
+        <v>0.7862791943330765</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8974687047761077</v>
+        <v>-0.9023248247264701</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268864326873605</v>
+        <v>0.02271054399009968</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2554704880114095</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6477235506020228</v>
+        <v>0.6422790312710243</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8483322463246664</v>
+        <v>-0.8539709520517558</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01597534214673785</v>
+        <v>0.01585561820328334</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2284101028950587</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5045395544227885</v>
+        <v>0.4992016186024263</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8166565029924022</v>
+        <v>-0.8224791747789461</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01172031008970926</v>
+        <v>-0.01167942874316381</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2056595904665234</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3948636619299088</v>
+        <v>0.3900893046726374</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.810806090292131</v>
+        <v>-0.8163104715948568</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02735158495097779</v>
+        <v>-0.02745816846161412</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1874832319085938</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2489727365901298</v>
+        <v>0.2435720187018585</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7460923787587848</v>
+        <v>-0.7516332612637833</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09256317288332391</v>
+        <v>-0.09163166220132417</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1735404601683362</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1889866607751459</v>
+        <v>0.1838794125531473</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7291937821546075</v>
+        <v>-0.7352106403372423</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07988995545423641</v>
+        <v>-0.07951034295060014</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1633316514174908</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03106201907009744</v>
+        <v>0.02622925988918964</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.701360885397615</v>
+        <v>-0.7074127847344316</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1362770127251303</v>
+        <v>-0.1360799062328577</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.156694439818647</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05608241128387916</v>
+        <v>-0.06124368128524142</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.71970200951561</v>
+        <v>-0.7259583155851538</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1684710731296672</v>
+        <v>-0.1689003272683943</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1534274775369958</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1494787675631268</v>
+        <v>-0.1543246671768528</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7535649048880555</v>
+        <v>-0.7596868865332357</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1836935345254813</v>
+        <v>-0.1838278589498449</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1535505255667436</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2626558553780055</v>
+        <v>-0.2679587500441859</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7562630737600547</v>
+        <v>-0.7625646413204167</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2168979482089269</v>
+        <v>-0.2174513064353813</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1564378098885018</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4154425878511463</v>
+        <v>-0.4214463056009629</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7375759182445143</v>
+        <v>-0.7448425775929669</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2374495851365577</v>
+        <v>-0.237748894995194</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1615614035809923</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4402867661660487</v>
+        <v>-0.4481126239333194</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7681537054124152</v>
+        <v>-0.7757882968797768</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2532867267786444</v>
+        <v>-0.2542897798170987</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1681361260190206</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5266705114646619</v>
+        <v>-0.5337064832147509</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8085108946932226</v>
+        <v>-0.8159673602934933</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2683617233172767</v>
+        <v>-0.2693749966923674</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1752290676492584</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5602574577479256</v>
+        <v>-0.5688746615804687</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7579406690165089</v>
+        <v>-0.767533184973779</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3193174016899903</v>
+        <v>-0.3196123314043539</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1822858361688271</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6409294949149039</v>
+        <v>-0.6496270013924471</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8034094866635876</v>
+        <v>-0.8126004893958578</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.317994598119627</v>
+        <v>-0.3191640966404449</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1887635665804334</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7504681428872382</v>
+        <v>-0.757955269497418</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8007594993785883</v>
+        <v>-0.8110849594774946</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3575473009023437</v>
+        <v>-0.3578436906647982</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1943850797685121</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7787010928211396</v>
+        <v>-0.7868890425149556</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9291415280121902</v>
+        <v>-0.9378945163171878</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.402110888733059</v>
+        <v>-0.4018042786339682</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1990048114843934</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8215403638564918</v>
+        <v>-0.8299298001868531</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9958452850934451</v>
+        <v>-1.004436208060352</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4197497297193269</v>
+        <v>-0.420180443906145</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2023426531432221</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.87242303982466</v>
+        <v>-0.8792458445534763</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.030048371671072</v>
+        <v>-1.037350072173707</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4528767608539545</v>
+        <v>-0.4531935912896816</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2040960743489744</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8147204792238573</v>
+        <v>-0.8214629813076736</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.055098416766793</v>
+        <v>-1.062941795111154</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.467243634068496</v>
+        <v>-0.4676860286400414</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2037761752678744</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7984745241163161</v>
+        <v>-0.8043249368165873</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.120324605180048</v>
+        <v>-1.126161877447501</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4559370216524991</v>
+        <v>-0.4562538520882263</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2008599848131654</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.715432828897793</v>
+        <v>-0.7207065226021553</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.162622198373673</v>
+        <v>-1.167136667070763</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4587826553816801</v>
+        <v>-0.4589155197579528</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1947248848971103</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5643835536528335</v>
+        <v>-0.5713304624693771</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.147290233371041</v>
+        <v>-1.152331779428948</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.439337734906958</v>
+        <v>-0.4384617060524129</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1847595407521708</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4261958420406889</v>
+        <v>-0.4343210096665958</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.171541632161034</v>
+        <v>-1.175602025901851</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4517189427178638</v>
+        <v>-0.4508721148251368</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.171081097499213</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3232186501888983</v>
+        <v>-0.3321015827739869</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.25327074414583</v>
+        <v>-1.256176239846739</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3953041445332426</v>
+        <v>-0.3952793237156972</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1545156121135596</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.134491373909949</v>
+        <v>-0.1434035074568557</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.310136697190542</v>
+        <v>-1.312183684613996</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.373149374801794</v>
+        <v>-0.3728515249912486</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1359381374931662</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02393698438646299</v>
+        <v>0.01381593102028389</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301792522350999</v>
+        <v>-1.302001309227999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3230376042256257</v>
+        <v>-0.3234215968735347</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1167872363332339</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2355461343461334</v>
+        <v>0.2252776161227726</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289592360503366</v>
+        <v>-1.289852249063548</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2872649659502716</v>
+        <v>-0.2881074136987259</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0982910601245571</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4179616227280845</v>
+        <v>0.4076201021001781</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230959749268655</v>
+        <v>-1.231453245523382</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.26960422424264</v>
+        <v>-0.2700057374676399</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.08186538499709227</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6244635244657563</v>
+        <v>0.6159733448171222</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153488137516948</v>
+        <v>-1.154257582860857</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2449250313620103</v>
+        <v>-0.2457806195432828</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.06879851519688454</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7391459218623618</v>
+        <v>0.7313478050088185</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.065676465185426</v>
+        <v>-1.06682260293679</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094341823682016</v>
+        <v>-0.210307291126565</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.05987337133707065</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9642210953644832</v>
+        <v>0.9568025910145761</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9995289864268077</v>
+        <v>-1.000437136339353</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1802259203095731</v>
+        <v>-0.1806522543521184</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05522203440737689</v>
       </c>
       <c r="E87" t="n">
-        <v>1.107597817891717</v>
+        <v>1.100925398116265</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9435259218038227</v>
+        <v>-0.9438018708930044</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1504000579084902</v>
+        <v>-0.1510439391165809</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05430575671457693</v>
       </c>
       <c r="E88" t="n">
-        <v>1.210227518297872</v>
+        <v>1.204477848915873</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8888222999817464</v>
+        <v>-0.8876352808838377</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1140477805410454</v>
+        <v>-0.1148478868948634</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05605055660475686</v>
       </c>
       <c r="E89" t="n">
-        <v>1.332274398265021</v>
+        <v>1.327257673024659</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7918648864087725</v>
+        <v>-0.7894660273954095</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1124169068235004</v>
+        <v>-0.112887042308773</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05968478930212433</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370343692187374</v>
+        <v>1.367081944752284</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.691893933576163</v>
+        <v>-0.6895782973039818</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0780926362543278</v>
+        <v>-0.07881243996314578</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06430662015971313</v>
       </c>
       <c r="E91" t="n">
-        <v>1.414999263047817</v>
+        <v>1.412441258792545</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5862098125638278</v>
+        <v>-0.5831597721019195</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01709620716043509</v>
+        <v>-0.0188774658313437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06966264081781995</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438612620822083</v>
+        <v>1.436815301622175</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4580774521537712</v>
+        <v>-0.4540652399999541</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02033897397034331</v>
+        <v>-0.02086897142734316</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0756591671433286</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410226365838636</v>
+        <v>1.409182431453637</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3494133729878913</v>
+        <v>-0.3453237782852561</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01378335804216325</v>
+        <v>-0.01405784708325408</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08243996396241267</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409951876797545</v>
+        <v>1.408610092602</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2101992475678378</v>
+        <v>-0.2058804253149298</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01668593364688974</v>
+        <v>-0.01763642495407131</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08950981934052177</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335779973731293</v>
+        <v>1.335723031855747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09442765429541432</v>
+        <v>-0.09093959940623345</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01913443429534363</v>
+        <v>-0.01955784824170715</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09505603125925816</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257381231441859</v>
+        <v>1.257096522064132</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0324987063915516</v>
+        <v>0.03524797694673268</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03376995635861243</v>
+        <v>-0.03410868751570324</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09767809764484957</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175146942817608</v>
+        <v>1.176253659270517</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1327937899003429</v>
+        <v>0.1337077800052517</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05247463245124376</v>
+        <v>-0.05284840476251639</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09580730183039841</v>
       </c>
       <c r="E98" t="n">
-        <v>1.077536887747998</v>
+        <v>1.079906545799543</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1937945991385083</v>
+        <v>0.1946823083777808</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05754391942287877</v>
+        <v>-0.05830606452633311</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08942778132378787</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9399886771996716</v>
+        <v>0.9429861559303071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1950852816508716</v>
+        <v>0.1959496301206895</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05222058408342566</v>
+        <v>-0.0540909056878797</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07895480768223725</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8454359628324242</v>
+        <v>0.8493167706580595</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2115546241163217</v>
+        <v>0.2119313165237761</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04560802627970015</v>
+        <v>-0.04674540374251803</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06778678025786178</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6928594772843742</v>
+        <v>0.6987084299365546</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1980506393235071</v>
+        <v>0.1988230047635978</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04979252410824449</v>
+        <v>-0.05020717776606256</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05651709741961602</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6328354402190267</v>
+        <v>0.6378653058922072</v>
       </c>
       <c r="F102" t="n">
-        <v>0.206847429071232</v>
+        <v>0.2071949205168683</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08182159907850861</v>
+        <v>-0.08214280965850852</v>
       </c>
     </row>
   </sheetData>
